--- a/Config Files/Outputs_V1.xlsx
+++ b/Config Files/Outputs_V1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C320E7C5-9734-41E9-B400-D505E35AEE97}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42024F51-6F83-4CF4-BAE4-D3EF47971A78}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,233 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{9C618F81-889E-4D74-B49A-8056B74CCBF9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ID iz tablice stringova u weinteku
+[000] InputOutputString</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{D4A41C8C-CD42-4136-8A67-CA53C00F0D9F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+registar za provjeru postojanja stignala</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{280A93A3-29E9-4FDF-A16F-05CB7E685B93}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+adresa za provjeru postojanja signala</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{D50BE320-D016-4129-B92D-CE5164ABF51A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+DW za provjeru postojanja signala</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{04E7D5BC-7EBC-4A32-B165-04B917A075DB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+uvijet za provjeru postojanja signala</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{217A49F6-4B7B-4A61-B56D-E33477A3CD56}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+pozicija bita u DW-u za provjeru postojanja signala</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{128902CE-D39F-4B3F-8AE2-31B7AF7D7932}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+registar signala</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{D2293509-C0E0-4339-BD11-885A079E97B6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+adresa signala</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L12" authorId="0" shapeId="0" xr:uid="{9FF0970A-BCF2-4E0E-A98F-0B7A8EF70826}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+modbus data type</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="185">
   <si>
@@ -118,9 +345,6 @@
     <t>Scale</t>
   </si>
   <si>
-    <t>Data Type</t>
-  </si>
-  <si>
     <t>#GROUP# DIGITAL</t>
   </si>
   <si>
@@ -575,13 +799,16 @@
   </si>
   <si>
     <t>0.1</t>
+  </si>
+  <si>
+    <t>Dana Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -602,6 +829,19 @@
       <sz val="8"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1245,30 +1485,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I49" workbookViewId="0">
-      <selection activeCell="N67" sqref="N67"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1276,7 +1516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1284,7 +1524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1292,7 +1532,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1300,7 +1540,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1308,7 +1548,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1316,7 +1556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1324,7 +1564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1332,7 +1572,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -1340,7 +1580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1348,7 +1588,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -1383,7 +1623,7 @@
         <v>31</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>32</v>
+        <v>184</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>3</v>
@@ -1413,17 +1653,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14">
         <v>307</v>
@@ -1435,13 +1675,13 @@
         <v>877</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1450,45 +1690,45 @@
         <v>221</v>
       </c>
       <c r="K14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>308</v>
@@ -1500,13 +1740,13 @@
         <v>878</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1515,45 +1755,45 @@
         <v>222</v>
       </c>
       <c r="K15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16">
         <v>309</v>
@@ -1565,13 +1805,13 @@
         <v>879</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1580,45 +1820,45 @@
         <v>223</v>
       </c>
       <c r="K16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17">
         <v>310</v>
@@ -1630,13 +1870,13 @@
         <v>880</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1645,45 +1885,45 @@
         <v>224</v>
       </c>
       <c r="K17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18">
         <v>311</v>
@@ -1695,13 +1935,13 @@
         <v>881</v>
       </c>
       <c r="F18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1710,45 +1950,45 @@
         <v>225</v>
       </c>
       <c r="K18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19">
         <v>312</v>
@@ -1760,13 +2000,13 @@
         <v>882</v>
       </c>
       <c r="F19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1775,45 +2015,45 @@
         <v>226</v>
       </c>
       <c r="K19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20">
         <v>313</v>
@@ -1825,13 +2065,13 @@
         <v>883</v>
       </c>
       <c r="F20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1840,45 +2080,45 @@
         <v>227</v>
       </c>
       <c r="K20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21">
         <v>314</v>
@@ -1890,13 +2130,13 @@
         <v>884</v>
       </c>
       <c r="F21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1905,45 +2145,45 @@
         <v>228</v>
       </c>
       <c r="K21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22">
         <v>315</v>
@@ -1955,13 +2195,13 @@
         <v>885</v>
       </c>
       <c r="F22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1970,45 +2210,45 @@
         <v>229</v>
       </c>
       <c r="K22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23">
         <v>316</v>
@@ -2020,13 +2260,13 @@
         <v>886</v>
       </c>
       <c r="F23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2035,45 +2275,45 @@
         <v>230</v>
       </c>
       <c r="K23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24">
         <v>317</v>
@@ -2085,13 +2325,13 @@
         <v>887</v>
       </c>
       <c r="F24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2100,45 +2340,45 @@
         <v>231</v>
       </c>
       <c r="K24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25">
         <v>318</v>
@@ -2150,13 +2390,13 @@
         <v>888</v>
       </c>
       <c r="F25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -2165,45 +2405,45 @@
         <v>232</v>
       </c>
       <c r="K25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26">
         <v>319</v>
@@ -2215,13 +2455,13 @@
         <v>889</v>
       </c>
       <c r="F26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -2230,45 +2470,45 @@
         <v>233</v>
       </c>
       <c r="K26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27">
         <v>320</v>
@@ -2280,13 +2520,13 @@
         <v>890</v>
       </c>
       <c r="F27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -2295,45 +2535,45 @@
         <v>234</v>
       </c>
       <c r="K27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28">
         <v>321</v>
@@ -2345,13 +2585,13 @@
         <v>891</v>
       </c>
       <c r="F28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -2360,45 +2600,45 @@
         <v>235</v>
       </c>
       <c r="K28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29">
         <v>322</v>
@@ -2410,13 +2650,13 @@
         <v>892</v>
       </c>
       <c r="F29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -2425,45 +2665,45 @@
         <v>236</v>
       </c>
       <c r="K29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R29" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T29" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U29" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30">
         <v>323</v>
@@ -2475,13 +2715,13 @@
         <v>893</v>
       </c>
       <c r="F30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -2490,45 +2730,45 @@
         <v>237</v>
       </c>
       <c r="K30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T30" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U30" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31">
         <v>324</v>
@@ -2540,13 +2780,13 @@
         <v>894</v>
       </c>
       <c r="F31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -2555,45 +2795,45 @@
         <v>238</v>
       </c>
       <c r="K31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T31" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U31" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32">
         <v>325</v>
@@ -2605,13 +2845,13 @@
         <v>895</v>
       </c>
       <c r="F32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -2620,45 +2860,45 @@
         <v>239</v>
       </c>
       <c r="K32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S32" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T32" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U32" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33">
         <v>326</v>
@@ -2670,13 +2910,13 @@
         <v>896</v>
       </c>
       <c r="F33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -2685,45 +2925,45 @@
         <v>240</v>
       </c>
       <c r="K33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q33" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R33" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S33" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T33" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U33" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34">
         <v>327</v>
@@ -2735,13 +2975,13 @@
         <v>897</v>
       </c>
       <c r="F34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -2750,45 +2990,45 @@
         <v>241</v>
       </c>
       <c r="K34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S34" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T34" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U34" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35">
         <v>328</v>
@@ -2800,13 +3040,13 @@
         <v>898</v>
       </c>
       <c r="F35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -2815,45 +3055,45 @@
         <v>242</v>
       </c>
       <c r="K35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q35" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R35" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S35" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T35" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U35" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36">
         <v>329</v>
@@ -2865,13 +3105,13 @@
         <v>899</v>
       </c>
       <c r="F36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -2880,45 +3120,45 @@
         <v>243</v>
       </c>
       <c r="K36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R36" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S36" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T36" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U36" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37">
         <v>330</v>
@@ -2930,13 +3170,13 @@
         <v>900</v>
       </c>
       <c r="F37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -2945,45 +3185,45 @@
         <v>244</v>
       </c>
       <c r="K37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R37" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S37" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T37" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U37" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38">
         <v>331</v>
@@ -2995,13 +3235,13 @@
         <v>901</v>
       </c>
       <c r="F38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -3010,45 +3250,45 @@
         <v>245</v>
       </c>
       <c r="K38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q38" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R38" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S38" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T38" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U38" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39">
         <v>332</v>
@@ -3060,13 +3300,13 @@
         <v>902</v>
       </c>
       <c r="F39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -3075,45 +3315,45 @@
         <v>246</v>
       </c>
       <c r="K39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R39" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S39" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T39" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U39" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40">
         <v>333</v>
@@ -3125,13 +3365,13 @@
         <v>903</v>
       </c>
       <c r="F40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -3140,45 +3380,45 @@
         <v>247</v>
       </c>
       <c r="K40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T40" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U40" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41">
         <v>334</v>
@@ -3190,13 +3430,13 @@
         <v>904</v>
       </c>
       <c r="F41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -3205,45 +3445,45 @@
         <v>248</v>
       </c>
       <c r="K41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R41" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S41" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T41" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U41" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42">
         <v>335</v>
@@ -3255,13 +3495,13 @@
         <v>905</v>
       </c>
       <c r="F42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -3270,45 +3510,45 @@
         <v>249</v>
       </c>
       <c r="K42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R42" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S42" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T42" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U42" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43">
         <v>336</v>
@@ -3320,13 +3560,13 @@
         <v>906</v>
       </c>
       <c r="F43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -3335,45 +3575,45 @@
         <v>250</v>
       </c>
       <c r="K43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q43" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R43" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S43" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T43" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U43" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44">
         <v>337</v>
@@ -3385,13 +3625,13 @@
         <v>907</v>
       </c>
       <c r="F44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -3400,45 +3640,45 @@
         <v>251</v>
       </c>
       <c r="K44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q44" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R44" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S44" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T44" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U44" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C45">
         <v>350</v>
@@ -3450,13 +3690,13 @@
         <v>936</v>
       </c>
       <c r="F45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I45">
         <v>3</v>
@@ -3465,45 +3705,45 @@
         <v>177</v>
       </c>
       <c r="K45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q45" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R45" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S45" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T45" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U45" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46">
         <v>351</v>
@@ -3515,13 +3755,13 @@
         <v>938</v>
       </c>
       <c r="F46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I46">
         <v>3</v>
@@ -3530,45 +3770,45 @@
         <v>179</v>
       </c>
       <c r="K46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q46" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R46" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S46" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T46" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U46" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C47">
         <v>338</v>
@@ -3580,13 +3820,13 @@
         <v>908</v>
       </c>
       <c r="F47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -3595,45 +3835,45 @@
         <v>301</v>
       </c>
       <c r="K47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q47" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R47" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S47" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T47" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U47" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C48">
         <v>339</v>
@@ -3645,13 +3885,13 @@
         <v>909</v>
       </c>
       <c r="F48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -3660,45 +3900,45 @@
         <v>302</v>
       </c>
       <c r="K48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q48" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R48" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S48" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T48" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U48" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C49">
         <v>340</v>
@@ -3710,13 +3950,13 @@
         <v>910</v>
       </c>
       <c r="F49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -3725,45 +3965,45 @@
         <v>303</v>
       </c>
       <c r="K49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P49" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q49" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R49" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S49" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T49" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U49" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C50">
         <v>341</v>
@@ -3775,13 +4015,13 @@
         <v>911</v>
       </c>
       <c r="F50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -3790,45 +4030,45 @@
         <v>304</v>
       </c>
       <c r="K50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q50" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R50" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S50" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T50" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U50" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C51">
         <v>342</v>
@@ -3840,13 +4080,13 @@
         <v>912</v>
       </c>
       <c r="F51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -3855,45 +4095,45 @@
         <v>305</v>
       </c>
       <c r="K51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O51" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P51" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q51" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R51" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S51" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T51" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U51" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C52">
         <v>343</v>
@@ -3905,13 +4145,13 @@
         <v>913</v>
       </c>
       <c r="F52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -3920,45 +4160,45 @@
         <v>306</v>
       </c>
       <c r="K52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P52" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q52" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R52" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S52" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T52" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U52" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C53">
         <v>344</v>
@@ -3970,13 +4210,13 @@
         <v>914</v>
       </c>
       <c r="F53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -3985,45 +4225,45 @@
         <v>307</v>
       </c>
       <c r="K53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P53" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q53" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R53" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S53" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T53" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U53" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C54">
         <v>345</v>
@@ -4035,13 +4275,13 @@
         <v>915</v>
       </c>
       <c r="F54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -4050,45 +4290,45 @@
         <v>308</v>
       </c>
       <c r="K54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q54" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R54" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S54" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T54" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U54" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C55">
         <v>346</v>
@@ -4100,13 +4340,13 @@
         <v>916</v>
       </c>
       <c r="F55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -4115,45 +4355,45 @@
         <v>309</v>
       </c>
       <c r="K55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M55" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q55" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R55" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S55" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T55" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U55" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C56">
         <v>347</v>
@@ -4165,13 +4405,13 @@
         <v>917</v>
       </c>
       <c r="F56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -4180,45 +4420,45 @@
         <v>310</v>
       </c>
       <c r="K56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M56" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P56" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q56" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R56" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S56" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T56" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U56" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C57">
         <v>348</v>
@@ -4230,13 +4470,13 @@
         <v>918</v>
       </c>
       <c r="F57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -4245,45 +4485,45 @@
         <v>311</v>
       </c>
       <c r="K57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M57" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P57" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q57" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R57" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S57" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T57" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U57" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C58">
         <v>349</v>
@@ -4295,13 +4535,13 @@
         <v>919</v>
       </c>
       <c r="F58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -4310,50 +4550,50 @@
         <v>312</v>
       </c>
       <c r="K58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O58" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P58" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q58" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R58" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S58" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T58" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U58" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60">
         <v>352</v>
@@ -4365,13 +4605,13 @@
         <v>920</v>
       </c>
       <c r="F60" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G60" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H60" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I60">
         <v>3</v>
@@ -4380,45 +4620,45 @@
         <v>161</v>
       </c>
       <c r="K60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L60">
         <v>0</v>
       </c>
       <c r="M60" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N60" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O60" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P60" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q60" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R60" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S60" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T60" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U60" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C61">
         <v>353</v>
@@ -4430,13 +4670,13 @@
         <v>921</v>
       </c>
       <c r="F61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I61">
         <v>3</v>
@@ -4445,45 +4685,45 @@
         <v>162</v>
       </c>
       <c r="K61" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L61">
         <v>0</v>
       </c>
       <c r="M61" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N61" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P61" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q61" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R61" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S61" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T61" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U61" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C62">
         <v>354</v>
@@ -4495,13 +4735,13 @@
         <v>922</v>
       </c>
       <c r="F62" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G62" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H62" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I62">
         <v>3</v>
@@ -4510,45 +4750,45 @@
         <v>163</v>
       </c>
       <c r="K62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L62">
         <v>0</v>
       </c>
       <c r="M62" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N62" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O62" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P62" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q62" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R62" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S62" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T62" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U62" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C63">
         <v>355</v>
@@ -4560,13 +4800,13 @@
         <v>923</v>
       </c>
       <c r="F63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I63">
         <v>3</v>
@@ -4575,45 +4815,45 @@
         <v>164</v>
       </c>
       <c r="K63" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L63">
         <v>0</v>
       </c>
       <c r="M63" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N63" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O63" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P63" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q63" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R63" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S63" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T63" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U63" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C64">
         <v>356</v>
@@ -4625,13 +4865,13 @@
         <v>924</v>
       </c>
       <c r="F64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I64">
         <v>3</v>
@@ -4640,45 +4880,45 @@
         <v>165</v>
       </c>
       <c r="K64" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L64">
         <v>0</v>
       </c>
       <c r="M64" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O64" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P64" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q64" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R64" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S64" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T64" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U64" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C65">
         <v>357</v>
@@ -4690,13 +4930,13 @@
         <v>925</v>
       </c>
       <c r="F65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I65">
         <v>3</v>
@@ -4705,45 +4945,45 @@
         <v>166</v>
       </c>
       <c r="K65" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L65">
         <v>0</v>
       </c>
       <c r="M65" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N65" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O65" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P65" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q65" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R65" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S65" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T65" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U65" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C66">
         <v>358</v>
@@ -4755,13 +4995,13 @@
         <v>926</v>
       </c>
       <c r="F66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I66">
         <v>3</v>
@@ -4770,45 +5010,45 @@
         <v>167</v>
       </c>
       <c r="K66" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L66">
         <v>0</v>
       </c>
       <c r="M66" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O66" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P66" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q66" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R66" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S66" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T66" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U66" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C67">
         <v>359</v>
@@ -4820,13 +5060,13 @@
         <v>927</v>
       </c>
       <c r="F67" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G67" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H67" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I67">
         <v>3</v>
@@ -4835,45 +5075,45 @@
         <v>168</v>
       </c>
       <c r="K67" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L67">
         <v>0</v>
       </c>
       <c r="M67" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N67" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O67" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P67" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q67" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R67" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S67" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T67" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U67" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C68">
         <v>360</v>
@@ -4885,13 +5125,13 @@
         <v>928</v>
       </c>
       <c r="F68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I68">
         <v>3</v>
@@ -4900,45 +5140,45 @@
         <v>169</v>
       </c>
       <c r="K68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L68">
         <v>0</v>
       </c>
       <c r="M68" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N68" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O68" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P68" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q68" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R68" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S68" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T68" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U68" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C69">
         <v>361</v>
@@ -4950,13 +5190,13 @@
         <v>929</v>
       </c>
       <c r="F69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I69">
         <v>3</v>
@@ -4965,45 +5205,45 @@
         <v>170</v>
       </c>
       <c r="K69" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L69">
         <v>0</v>
       </c>
       <c r="M69" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N69" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O69" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P69" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q69" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R69" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S69" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T69" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U69" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C70">
         <v>362</v>
@@ -5015,13 +5255,13 @@
         <v>930</v>
       </c>
       <c r="F70" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G70" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H70" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I70">
         <v>3</v>
@@ -5030,45 +5270,45 @@
         <v>171</v>
       </c>
       <c r="K70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L70">
         <v>0</v>
       </c>
       <c r="M70" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N70" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O70" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P70" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q70" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R70" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S70" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T70" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U70" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B71" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C71">
         <v>363</v>
@@ -5080,13 +5320,13 @@
         <v>931</v>
       </c>
       <c r="F71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I71">
         <v>3</v>
@@ -5095,45 +5335,45 @@
         <v>172</v>
       </c>
       <c r="K71" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L71">
         <v>0</v>
       </c>
       <c r="M71" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N71" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O71" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P71" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q71" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R71" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S71" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T71" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U71" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B72" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C72">
         <v>364</v>
@@ -5145,13 +5385,13 @@
         <v>932</v>
       </c>
       <c r="F72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I72">
         <v>3</v>
@@ -5160,45 +5400,45 @@
         <v>173</v>
       </c>
       <c r="K72" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L72">
         <v>0</v>
       </c>
       <c r="M72" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N72" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O72" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P72" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q72" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R72" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S72" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T72" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U72" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C73">
         <v>365</v>
@@ -5210,13 +5450,13 @@
         <v>933</v>
       </c>
       <c r="F73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I73">
         <v>3</v>
@@ -5225,45 +5465,45 @@
         <v>174</v>
       </c>
       <c r="K73" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L73">
         <v>0</v>
       </c>
       <c r="M73" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N73" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O73" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P73" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q73" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R73" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S73" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T73" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U73" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C74">
         <v>366</v>
@@ -5275,13 +5515,13 @@
         <v>934</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I74">
         <v>3</v>
@@ -5290,45 +5530,45 @@
         <v>175</v>
       </c>
       <c r="K74" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L74">
         <v>0</v>
       </c>
       <c r="M74" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N74" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O74" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P74" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q74" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R74" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S74" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T74" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U74" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C75">
         <v>367</v>
@@ -5340,13 +5580,13 @@
         <v>935</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G75" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H75" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I75">
         <v>3</v>
@@ -5355,45 +5595,45 @@
         <v>176</v>
       </c>
       <c r="K75" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L75">
         <v>0</v>
       </c>
       <c r="M75" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N75" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O75" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P75" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q75" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R75" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S75" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T75" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U75" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C76">
         <v>368</v>
@@ -5405,13 +5645,13 @@
         <v>937</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G76" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H76" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I76">
         <v>3</v>
@@ -5420,45 +5660,45 @@
         <v>178</v>
       </c>
       <c r="K76" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L76">
         <v>0</v>
       </c>
       <c r="M76" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N76" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O76" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P76" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q76" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R76" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S76" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T76" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U76" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C77">
         <v>369</v>
@@ -5470,13 +5710,13 @@
         <v>939</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I77">
         <v>3</v>
@@ -5485,45 +5725,45 @@
         <v>180</v>
       </c>
       <c r="K77" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L77">
         <v>0</v>
       </c>
       <c r="M77" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N77" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O77" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P77" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q77" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R77" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S77" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T77" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U77" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C78">
         <v>370</v>
@@ -5535,13 +5775,13 @@
         <v>940</v>
       </c>
       <c r="F78" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G78" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H78" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I78">
         <v>3</v>
@@ -5550,45 +5790,45 @@
         <v>181</v>
       </c>
       <c r="K78" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L78">
         <v>0</v>
       </c>
       <c r="M78" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N78" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O78" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P78" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q78" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R78" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S78" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T78" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U78" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B79" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C79">
         <v>371</v>
@@ -5600,13 +5840,13 @@
         <v>941</v>
       </c>
       <c r="F79" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G79" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H79" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I79">
         <v>3</v>
@@ -5615,45 +5855,45 @@
         <v>182</v>
       </c>
       <c r="K79" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L79">
         <v>0</v>
       </c>
       <c r="M79" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N79" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O79" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P79" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q79" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R79" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S79" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T79" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U79" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C80">
         <v>372</v>
@@ -5665,13 +5905,13 @@
         <v>942</v>
       </c>
       <c r="F80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I80">
         <v>3</v>
@@ -5680,45 +5920,45 @@
         <v>201</v>
       </c>
       <c r="K80" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L80">
         <v>0</v>
       </c>
       <c r="M80" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N80" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O80" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P80" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q80" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R80" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S80" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T80" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U80" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C81">
         <v>373</v>
@@ -5730,13 +5970,13 @@
         <v>943</v>
       </c>
       <c r="F81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I81">
         <v>3</v>
@@ -5745,45 +5985,45 @@
         <v>202</v>
       </c>
       <c r="K81" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L81">
         <v>0</v>
       </c>
       <c r="M81" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N81" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O81" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P81" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q81" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R81" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S81" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T81" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U81" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C82">
         <v>374</v>
@@ -5795,13 +6035,13 @@
         <v>944</v>
       </c>
       <c r="F82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I82">
         <v>3</v>
@@ -5810,45 +6050,45 @@
         <v>203</v>
       </c>
       <c r="K82" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L82">
         <v>0</v>
       </c>
       <c r="M82" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N82" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O82" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P82" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q82" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R82" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S82" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T82" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U82" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B83" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C83">
         <v>375</v>
@@ -5860,13 +6100,13 @@
         <v>945</v>
       </c>
       <c r="F83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I83">
         <v>3</v>
@@ -5875,45 +6115,45 @@
         <v>204</v>
       </c>
       <c r="K83" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L83">
         <v>0</v>
       </c>
       <c r="M83" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N83" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O83" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P83" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q83" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R83" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S83" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T83" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U83" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B84" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C84">
         <v>376</v>
@@ -5925,13 +6165,13 @@
         <v>946</v>
       </c>
       <c r="F84" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G84" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H84" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I84">
         <v>3</v>
@@ -5940,45 +6180,45 @@
         <v>205</v>
       </c>
       <c r="K84" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L84">
         <v>0</v>
       </c>
       <c r="M84" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N84" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O84" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P84" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q84" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R84" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S84" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T84" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U84" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C85">
         <v>377</v>
@@ -5990,13 +6230,13 @@
         <v>947</v>
       </c>
       <c r="F85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I85">
         <v>3</v>
@@ -6005,37 +6245,37 @@
         <v>206</v>
       </c>
       <c r="K85" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L85">
         <v>0</v>
       </c>
       <c r="M85" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N85" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O85" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P85" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q85" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R85" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S85" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T85" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U85" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -6261,5 +6501,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Config Files/Outputs_V1.xlsx
+++ b/Config Files/Outputs_V1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42024F51-6F83-4CF4-BAE4-D3EF47971A78}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7AF650-F35C-419C-B838-A69B4FFCAC5E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{D4A41C8C-CD42-4136-8A67-CA53C00F0D9F}">
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{1DBD6153-65BF-4DC3-8C0B-7A769D733497}">
       <text>
         <r>
           <rPr>
@@ -70,11 +70,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-registar za provjeru postojanja stignala</t>
+tip registra za provjeru postojanja stignala</t>
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{280A93A3-29E9-4FDF-A16F-05CB7E685B93}">
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{668D6851-4922-4DFF-94BD-BE170AE53A12}">
       <text>
         <r>
           <rPr>
@@ -98,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{D50BE320-D016-4129-B92D-CE5164ABF51A}">
+    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{C1100535-1256-4C3E-8186-D0910F3D887E}">
       <text>
         <r>
           <rPr>
@@ -118,11 +118,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-DW za provjeru postojanja signala</t>
+DW (double word u kojem bitovi označuju postojanje odgovarajućeg signala) za provjeru postojanja signala</t>
         </r>
       </text>
     </comment>
-    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{04E7D5BC-7EBC-4A32-B165-04B917A075DB}">
+    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{6CE40486-7223-4931-95EC-33F35E8CB131}">
       <text>
         <r>
           <rPr>
@@ -142,11 +142,14 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-uvijet za provjeru postojanja signala</t>
+uvijet za provjeru postojanja signala. Npr:
+&lt; 1
+&gt; 2
+== 3</t>
         </r>
       </text>
     </comment>
-    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{217A49F6-4B7B-4A61-B56D-E33477A3CD56}">
+    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{BE2F9735-D852-4CFD-B795-AE3C4C5A5FB8}">
       <text>
         <r>
           <rPr>
@@ -170,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{128902CE-D39F-4B3F-8AE2-31B7AF7D7932}">
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{306AA5B1-B04E-4878-96CC-04DB14EEACC6}">
       <text>
         <r>
           <rPr>
@@ -190,11 +193,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-registar signala</t>
+tip registra signala</t>
         </r>
       </text>
     </comment>
-    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{D2293509-C0E0-4339-BD11-885A079E97B6}">
+    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{75B10A3F-352A-4785-9C3A-40C95F242F8F}">
       <text>
         <r>
           <rPr>
@@ -1489,7 +1492,7 @@
   <dimension ref="A1:U85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
